--- a/2/data.xlsx
+++ b/2/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/alotaima/CS-475/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iamlotaibi/Desktop/CS-475/2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89932820-3B63-6C4C-A53D-9769856D7964}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5FACEA-49D4-2E49-B81E-A8FB17886B12}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="16800" windowHeight="20560"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>Coarse-Static</t>
+    <t>coarse+static</t>
   </si>
   <si>
-    <t>Coarse-Dynamic</t>
+    <t>coarse+dynamic</t>
   </si>
   <si>
-    <t>Fine-Static</t>
+    <t>fine+static</t>
   </si>
   <si>
-    <t>Fine-Dynamic</t>
+    <t>fine+dynamic</t>
   </si>
 </sst>
 </file>
@@ -589,41 +589,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -634,7 +604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coarse-Static</c:v>
+                  <c:v>coarse+static</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -697,22 +667,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.510000000000002</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.92</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.95</c:v>
+                  <c:v>54.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.94</c:v>
+                  <c:v>78.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.93</c:v>
+                  <c:v>65.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.77</c:v>
+                  <c:v>31.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +690,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000000-AADA-494C-8CA8-5C9601BE515C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -733,7 +703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coarse-Dynamic</c:v>
+                  <c:v>coarse+dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -796,22 +766,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.22</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.88</c:v>
+                  <c:v>34.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.08</c:v>
+                  <c:v>61.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.819999999999993</c:v>
+                  <c:v>79.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.47</c:v>
+                  <c:v>78.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.85</c:v>
+                  <c:v>54.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +789,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000001-AADA-494C-8CA8-5C9601BE515C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -832,7 +802,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fine-Static</c:v>
+                  <c:v>fine+static</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -895,22 +865,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.97</c:v>
+                  <c:v>16.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>24.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.29</c:v>
+                  <c:v>21.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.78</c:v>
+                  <c:v>16.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6300000000000008</c:v>
+                  <c:v>9.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.36</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +888,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000002-AADA-494C-8CA8-5C9601BE515C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -931,7 +901,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fine-Dynamic</c:v>
+                  <c:v>fine+dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -994,22 +964,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.58</c:v>
+                  <c:v>11.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.27</c:v>
+                  <c:v>19.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.65</c:v>
+                  <c:v>10.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.89</c:v>
+                  <c:v>9.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.32</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +987,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000003-AADA-494C-8CA8-5C9601BE515C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1031,11 +1001,701 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="717184719"/>
-        <c:axId val="717186415"/>
+        <c:axId val="668655679"/>
+        <c:axId val="668782079"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="717184719"/>
+        <c:axId val="668655679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668782079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668782079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MegaBodies Compared Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668655679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coarse+static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-566E-8046-ACDE-2FAAB47E078F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coarse+dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-566E-8046-ACDE-2FAAB47E078F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine+static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-566E-8046-ACDE-2FAAB47E078F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine+dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$12:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-566E-8046-ACDE-2FAAB47E078F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="572205519"/>
+        <c:axId val="720726383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="572205519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,8 +1722,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># of Threads</a:t>
+                  <a:t>#</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1133,7 +1798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717186415"/>
+        <c:crossAx val="720726383"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="717186415"/>
+        <c:axId val="720726383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,10 +1846,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t>MegaBodies Compared Per Second</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1248,7 +1912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717184719"/>
+        <c:crossAx val="572205519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1292,7 +1956,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1332,6 +1996,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1375,6 +2040,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1878,27 +2583,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>522111</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166511</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC52F7-DCDA-B647-A1D0-B34B4E497211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408ECFAA-6BC7-CA48-9CFF-81033B84ECA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +3124,199 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C456B444-33E8-794E-A2F0-67E6CD79B5BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72361</cdr:x>
+      <cdr:y>0.67824</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9625</cdr:x>
+      <cdr:y>0.76157</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47694B18-3B9E-0444-9340-E59432E36A61}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3308350" y="1860550"/>
+          <a:ext cx="1092200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Approach+Method</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73611</cdr:x>
+      <cdr:y>0.64815</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.975</cdr:x>
+      <cdr:y>0.73148</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1802E3-C1FB-EA4B-96C6-EEC41DC887DB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3365500" y="1778000"/>
+          <a:ext cx="1092200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Approach+Method</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2216,17 +3616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2247,16 +3643,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.510000000000002</v>
+        <v>17.5</v>
       </c>
       <c r="C2">
-        <v>17.22</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="D2">
-        <v>15.97</v>
+        <v>16.39</v>
       </c>
       <c r="E2">
-        <v>11.58</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2264,16 +3660,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.92</v>
+        <v>30.06</v>
       </c>
       <c r="C3">
-        <v>29.88</v>
+        <v>34.11</v>
       </c>
       <c r="D3">
-        <v>19.899999999999999</v>
+        <v>24.52</v>
       </c>
       <c r="E3">
-        <v>10.27</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2281,16 +3677,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>53.95</v>
+        <v>54.17</v>
       </c>
       <c r="C4">
-        <v>56.08</v>
+        <v>61.75</v>
       </c>
       <c r="D4">
-        <v>24.29</v>
+        <v>21.36</v>
       </c>
       <c r="E4">
-        <v>9.65</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2298,16 +3694,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>76.94</v>
+        <v>78.86</v>
       </c>
       <c r="C5">
-        <v>74.819999999999993</v>
+        <v>79.81</v>
       </c>
       <c r="D5">
-        <v>15.78</v>
+        <v>16.89</v>
       </c>
       <c r="E5">
-        <v>8.89</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2315,16 +3711,16 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>109.93</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="C6">
-        <v>49.47</v>
+        <v>78.98</v>
       </c>
       <c r="D6">
-        <v>8.6300000000000008</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E6">
-        <v>5.2</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2332,16 +3728,115 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>31.77</v>
+        <v>31.39</v>
       </c>
       <c r="C7">
-        <v>28.85</v>
+        <v>54.36</v>
       </c>
       <c r="D7">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="E7">
-        <v>1.32</v>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1.57</v>
+      </c>
+      <c r="C12">
+        <v>1.83</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2.75</v>
+      </c>
+      <c r="C13">
+        <v>3.67</v>
+      </c>
+      <c r="D13">
+        <v>1.33</v>
+      </c>
+      <c r="E13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.67</v>
+      </c>
+      <c r="C14">
+        <v>3.67</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3.67</v>
+      </c>
+      <c r="C15">
+        <v>3.67</v>
+      </c>
+      <c r="D15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1.83</v>
+      </c>
+      <c r="C16">
+        <v>2.75</v>
+      </c>
+      <c r="D16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
